--- a/biology/Histoire de la zoologie et de la botanique/Armand_Dehorne/Armand_Dehorne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Armand_Dehorne/Armand_Dehorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand Dehorne, né à Vieux-Mesnil 24 avril 1882 et mort le 22 avril 1974 à Lille[1], est professeur de biologie marine et de zoologie à la Faculté des sciences de Lille et un poète.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Dehorne, né à Vieux-Mesnil 24 avril 1882 et mort le 22 avril 1974 à Lille, est professeur de biologie marine et de zoologie à la Faculté des sciences de Lille et un poète.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après sa licence à la Faculté des Sciences de Lille, il devient assistant en 1903. Élève d’Alphonse Malaquin, il soutient sa thèse à la Faculté de Paris en 1911. En 1914, Il est mobilisé et ira sur le front. En 1916, affecté comme biologiste, il participe à la mise au point d'un vaccin contre la gangrène.
 De retour à la vie civile, il devient de Maitre de conférences en 1919, puis Professeur en 1922. Il sera titularisé dans la chaire d'Histologie et de Biologie marine (1925-1937) puis dans celle de Zoologie générale et appliquée, de 1937 à sa retraite en 1952. Maxime Lamotte lui succède à la chaire de zoologie.
-Il est conservateur du Musée d'Histoire Naturelle de Lille de 1949 à 1961[2].
-En 1912, Il épouse Charlotte (Lota) Ruderman une étudiante polonaise née en 1884. En 1911, celle-ci soutient une thèse de Zoologie à l'Université de Lille intitulée Recherches sur Ephesia Gracilis Rathke : morphologie, anatomie, histologie[3]. Charlotte meurt d'une leucémie en 1926[4].
-En parallèle de son travail académique, il publie des poèmes de 1927 à 1938. Ils seront réédités en 1975, puis en 1984[5].
+Il est conservateur du Musée d'Histoire Naturelle de Lille de 1949 à 1961.
+En 1912, Il épouse Charlotte (Lota) Ruderman une étudiante polonaise née en 1884. En 1911, celle-ci soutient une thèse de Zoologie à l'Université de Lille intitulée Recherches sur Ephesia Gracilis Rathke : morphologie, anatomie, histologie. Charlotte meurt d'une leucémie en 1926.
+En parallèle de son travail académique, il publie des poèmes de 1927 à 1938. Ils seront réédités en 1975, puis en 1984.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Recherches sur la division de la cellule : Homéotypie et hétérotypie chez les annélides polychètes et les trématodes, Thèse de doctorat en sciences naturelles : Faculté des sciences de Paris, 1911[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Recherches sur la division de la cellule : Homéotypie et hétérotypie chez les annélides polychètes et les trématodes, Thèse de doctorat en sciences naturelles : Faculté des sciences de Paris, 1911.
 Histolyse et Phagocytose musculaires dans le coelome des Néréides à maturité sexuelle, Comptes rendus hebdomadaires des séances de l’Académie des sciences, tome 174, 1922, page 1043
-Aspects du chondriome de "Stylaria lacustris", Lierre, 1925[7]
-La Schizométamérie et les segments tétragemmes de "Dodecaceria Caulleryi", Paris, Laboratoire d'évolution des êtres organisés, 1933[8]</t>
+Aspects du chondriome de "Stylaria lacustris", Lierre, 1925
+La Schizométamérie et les segments tétragemmes de "Dodecaceria Caulleryi", Paris, Laboratoire d'évolution des êtres organisés, 1933</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Œuvres littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nord : poèmes, Mercure de Flandre, Lille, 1927
 Routes : poèmes Mercure de Flandre, Lille, 1927
